--- a/public/notascertificadas.xlsx
+++ b/public/notascertificadas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Nueva carpeta (2)\Academico360Mongo\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Nueva carpeta (4)\Academico360Mongo\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -923,6 +923,478 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="88"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="88"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="88"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="88"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -930,12 +1402,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -944,472 +1410,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="88"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="88"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="88"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="88"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1435,25 +1435,23 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
@@ -1468,48 +1466,15 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="314325" y="85725"/>
-          <a:ext cx="2571750" cy="390525"/>
+          <a:off x="285750" y="0"/>
+          <a:ext cx="3019425" cy="518160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:blipFill dpi="0" rotWithShape="0">
-                <a:srcRect/>
-                <a:stretch>
-                  <a:fillRect/>
-                </a:stretch>
-              </a:blipFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="3465A4"/>
-              </a:solidFill>
-              <a:round/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1781,7 +1746,7 @@
   <dimension ref="B1:V58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:V3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -1820,20 +1785,20 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
     </row>
     <row r="2" spans="2:22">
       <c r="B2" s="1"/>
@@ -1844,23 +1809,23 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22" t="s">
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
+      <c r="Q2" s="178"/>
+      <c r="R2" s="178"/>
+      <c r="S2" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
+      <c r="T2" s="179"/>
+      <c r="U2" s="179"/>
+      <c r="V2" s="179"/>
     </row>
     <row r="3" spans="2:22">
       <c r="B3" s="1"/>
@@ -1871,13 +1836,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="182" t="s">
+      <c r="J3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="182"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
       <c r="O3" s="183"/>
       <c r="P3" s="183"/>
       <c r="Q3" s="183"/>
@@ -1888,173 +1853,173 @@
       <c r="V3" s="183"/>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="129"/>
+      <c r="V4" s="129"/>
     </row>
     <row r="5" spans="2:22">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25" t="s">
+      <c r="C5" s="168"/>
+      <c r="D5" s="180" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26" t="s">
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="27" t="s">
+      <c r="J5" s="181"/>
+      <c r="K5" s="182" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="182"/>
+      <c r="S5" s="182"/>
+      <c r="T5" s="182"/>
+      <c r="U5" s="182"/>
+      <c r="V5" s="182"/>
     </row>
     <row r="6" spans="2:22">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="168"/>
+      <c r="D6" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="29" t="s">
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="169"/>
+      <c r="N6" s="169"/>
+      <c r="O6" s="169"/>
+      <c r="P6" s="170" t="s">
         <v>68</v>
       </c>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
+      <c r="Q6" s="170"/>
+      <c r="R6" s="170"/>
+      <c r="S6" s="170"/>
+      <c r="T6" s="170"/>
+      <c r="U6" s="170"/>
+      <c r="V6" s="170"/>
     </row>
     <row r="7" spans="2:22">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="30" t="s">
+      <c r="C7" s="168"/>
+      <c r="D7" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31" t="s">
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="172" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="32" t="s">
+      <c r="H7" s="172"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="172"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="172"/>
+      <c r="N7" s="172"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
+      <c r="Q7" s="173"/>
+      <c r="R7" s="173"/>
+      <c r="S7" s="173"/>
+      <c r="T7" s="173"/>
+      <c r="U7" s="173"/>
+      <c r="V7" s="173"/>
     </row>
     <row r="8" spans="2:22">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="129"/>
+      <c r="M8" s="129"/>
+      <c r="N8" s="129"/>
+      <c r="O8" s="129"/>
+      <c r="P8" s="129"/>
+      <c r="Q8" s="129"/>
+      <c r="R8" s="129"/>
+      <c r="S8" s="129"/>
+      <c r="T8" s="129"/>
+      <c r="U8" s="129"/>
+      <c r="V8" s="129"/>
     </row>
     <row r="9" spans="2:22">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
       <c r="I9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
+      <c r="K9" s="176"/>
+      <c r="L9" s="176"/>
+      <c r="M9" s="176"/>
+      <c r="N9" s="176"/>
+      <c r="O9" s="176"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="176"/>
+      <c r="R9" s="176"/>
+      <c r="S9" s="176"/>
+      <c r="T9" s="176"/>
+      <c r="U9" s="176"/>
       <c r="V9" s="3"/>
     </row>
     <row r="10" spans="2:22">
@@ -2062,12 +2027,12 @@
         <v>13</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
       <c r="J10" s="3"/>
       <c r="K10" s="4" t="s">
         <v>14</v>
@@ -2075,14 +2040,14 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
+      <c r="O10" s="155"/>
+      <c r="P10" s="155"/>
+      <c r="Q10" s="155"/>
+      <c r="R10" s="155"/>
+      <c r="S10" s="155"/>
+      <c r="T10" s="155"/>
+      <c r="U10" s="155"/>
+      <c r="V10" s="155"/>
     </row>
     <row r="11" spans="2:22" ht="15" customHeight="1">
       <c r="B11" s="4" t="s">
@@ -2090,60 +2055,60 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="167" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="58" t="s">
+      <c r="F11" s="167"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="59" t="s">
+      <c r="L11" s="162"/>
+      <c r="M11" s="162"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="165"/>
+      <c r="P11" s="165"/>
+      <c r="Q11" s="165"/>
+      <c r="R11" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="S11" s="59"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60"/>
+      <c r="S11" s="163"/>
+      <c r="T11" s="164"/>
+      <c r="U11" s="164"/>
+      <c r="V11" s="164"/>
     </row>
     <row r="12" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="156"/>
       <c r="M12" s="1"/>
       <c r="N12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="39" t="s">
+      <c r="O12" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="42" t="s">
+      <c r="P12" s="97"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="S12" s="43"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="45"/>
+      <c r="S12" s="157"/>
+      <c r="T12" s="158"/>
+      <c r="U12" s="159"/>
       <c r="V12" s="19" t="s">
         <v>20</v>
       </c>
@@ -2152,672 +2117,672 @@
       <c r="B13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="49" t="s">
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="49" t="s">
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="51"/>
+      <c r="L13" s="161"/>
       <c r="M13" s="1"/>
       <c r="N13" s="16">
         <v>3</v>
       </c>
-      <c r="O13" s="52"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="57"/>
+      <c r="O13" s="144"/>
+      <c r="P13" s="145"/>
+      <c r="Q13" s="146"/>
+      <c r="R13" s="147"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="105"/>
       <c r="V13" s="10"/>
     </row>
     <row r="14" spans="2:22">
       <c r="B14" s="5">
         <v>1</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="70"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="143"/>
       <c r="M14" s="1"/>
       <c r="N14" s="5">
         <v>4</v>
       </c>
-      <c r="O14" s="52"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="57"/>
+      <c r="O14" s="144"/>
+      <c r="P14" s="145"/>
+      <c r="Q14" s="146"/>
+      <c r="R14" s="147"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="104"/>
+      <c r="U14" s="105"/>
       <c r="V14" s="11"/>
     </row>
     <row r="15" spans="2:22">
       <c r="B15" s="16">
         <v>2</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="70"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="143"/>
       <c r="M15" s="1"/>
       <c r="N15" s="16">
         <v>5</v>
       </c>
-      <c r="O15" s="52"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="57"/>
+      <c r="O15" s="144"/>
+      <c r="P15" s="145"/>
+      <c r="Q15" s="146"/>
+      <c r="R15" s="147"/>
+      <c r="S15" s="104"/>
+      <c r="T15" s="104"/>
+      <c r="U15" s="105"/>
       <c r="V15" s="10"/>
     </row>
     <row r="16" spans="2:22">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="129"/>
+      <c r="U16" s="129"/>
+      <c r="V16" s="129"/>
     </row>
     <row r="17" spans="2:22">
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="78" t="s">
+      <c r="N17" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="O17" s="78"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="78"/>
-      <c r="T17" s="78"/>
-      <c r="U17" s="78"/>
-      <c r="V17" s="78"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="131"/>
+      <c r="S17" s="131"/>
+      <c r="T17" s="131"/>
+      <c r="U17" s="131"/>
+      <c r="V17" s="131"/>
     </row>
     <row r="18" spans="2:22" ht="15" customHeight="1">
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="46" t="s">
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="89" t="s">
+      <c r="F18" s="122"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="46" t="s">
+      <c r="I18" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="48"/>
-      <c r="K18" s="98" t="s">
+      <c r="J18" s="110"/>
+      <c r="K18" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="99"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="79" t="s">
+      <c r="L18" s="55"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="O18" s="80"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="136" t="s">
+      <c r="O18" s="133"/>
+      <c r="P18" s="133"/>
+      <c r="Q18" s="134"/>
+      <c r="R18" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="S18" s="137"/>
-      <c r="T18" s="137"/>
-      <c r="U18" s="137"/>
-      <c r="V18" s="138"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="26"/>
     </row>
     <row r="19" spans="2:22" ht="15" customHeight="1">
-      <c r="B19" s="95"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="97"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="78"/>
       <c r="E19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="90"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="118"/>
       <c r="I19" s="12" t="s">
         <v>32</v>
       </c>
       <c r="J19" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="100"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="79" t="s">
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="O19" s="80"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="139"/>
-      <c r="S19" s="140"/>
-      <c r="T19" s="140"/>
-      <c r="U19" s="140"/>
-      <c r="V19" s="141"/>
+      <c r="O19" s="133"/>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="134"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="29"/>
     </row>
     <row r="20" spans="2:22" ht="15" customHeight="1">
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="84"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="101"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="86"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="120"/>
       <c r="H20" s="13"/>
       <c r="I20" s="9"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="88"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="90"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="151"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="152"/>
-      <c r="Q20" s="153"/>
-      <c r="R20" s="139"/>
-      <c r="S20" s="140"/>
-      <c r="T20" s="140"/>
-      <c r="U20" s="140"/>
-      <c r="V20" s="141"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="29"/>
     </row>
     <row r="21" spans="2:22" ht="23.25" customHeight="1">
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="104"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="116"/>
       <c r="E21" s="13"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="86"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="120"/>
       <c r="H21" s="13"/>
       <c r="I21" s="9"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="88"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="90"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="154"/>
-      <c r="O21" s="155"/>
-      <c r="P21" s="155"/>
-      <c r="Q21" s="156"/>
-      <c r="R21" s="139"/>
-      <c r="S21" s="140"/>
-      <c r="T21" s="140"/>
-      <c r="U21" s="140"/>
-      <c r="V21" s="141"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="29"/>
     </row>
     <row r="22" spans="2:22" ht="15" customHeight="1">
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="83"/>
-      <c r="D22" s="84"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="101"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="86"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="120"/>
       <c r="H22" s="13"/>
       <c r="I22" s="9"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="88"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="90"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="157"/>
-      <c r="O22" s="158"/>
-      <c r="P22" s="158"/>
-      <c r="Q22" s="159"/>
-      <c r="R22" s="139"/>
-      <c r="S22" s="140"/>
-      <c r="T22" s="140"/>
-      <c r="U22" s="140"/>
-      <c r="V22" s="141"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="29"/>
     </row>
     <row r="23" spans="2:22" ht="15" customHeight="1">
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="101"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="86"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="120"/>
       <c r="H23" s="13"/>
       <c r="I23" s="9"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="88"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="90"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="105" t="s">
+      <c r="N23" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="107"/>
-      <c r="R23" s="139"/>
-      <c r="S23" s="140"/>
-      <c r="T23" s="140"/>
-      <c r="U23" s="140"/>
-      <c r="V23" s="141"/>
+      <c r="O23" s="107"/>
+      <c r="P23" s="107"/>
+      <c r="Q23" s="108"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="29"/>
     </row>
     <row r="24" spans="2:22" ht="15" customHeight="1">
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="101"/>
       <c r="E24" s="13"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="86"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="120"/>
       <c r="H24" s="13"/>
       <c r="I24" s="9"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="88"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="90"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="108" t="s">
+      <c r="N24" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="O24" s="109"/>
-      <c r="P24" s="109"/>
-      <c r="Q24" s="110"/>
-      <c r="R24" s="139"/>
-      <c r="S24" s="140"/>
-      <c r="T24" s="140"/>
-      <c r="U24" s="140"/>
-      <c r="V24" s="141"/>
+      <c r="O24" s="124"/>
+      <c r="P24" s="124"/>
+      <c r="Q24" s="125"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="29"/>
     </row>
     <row r="25" spans="2:22" ht="15" customHeight="1">
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="83"/>
-      <c r="D25" s="84"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="101"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="86"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="120"/>
       <c r="H25" s="13"/>
       <c r="I25" s="9"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="88"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="90"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="111"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="113"/>
-      <c r="R25" s="139"/>
-      <c r="S25" s="140"/>
-      <c r="T25" s="140"/>
-      <c r="U25" s="140"/>
-      <c r="V25" s="141"/>
+      <c r="N25" s="126"/>
+      <c r="O25" s="127"/>
+      <c r="P25" s="127"/>
+      <c r="Q25" s="128"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="29"/>
     </row>
     <row r="26" spans="2:22" ht="24.75" customHeight="1">
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="84"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="101"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="86"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="120"/>
       <c r="H26" s="13"/>
       <c r="I26" s="9"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="88"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="90"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="166"/>
-      <c r="O26" s="167"/>
-      <c r="P26" s="167"/>
-      <c r="Q26" s="168"/>
-      <c r="R26" s="139"/>
-      <c r="S26" s="140"/>
-      <c r="T26" s="140"/>
-      <c r="U26" s="140"/>
-      <c r="V26" s="141"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="29"/>
     </row>
     <row r="27" spans="2:22">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="121"/>
+      <c r="K27" s="121"/>
+      <c r="L27" s="121"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="169"/>
-      <c r="O27" s="170"/>
-      <c r="P27" s="170"/>
-      <c r="Q27" s="171"/>
-      <c r="R27" s="139"/>
-      <c r="S27" s="140"/>
-      <c r="T27" s="140"/>
-      <c r="U27" s="140"/>
-      <c r="V27" s="141"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="29"/>
     </row>
     <row r="28" spans="2:22" ht="15" customHeight="1">
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="93"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="46" t="s">
+      <c r="C28" s="74"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="89" t="s">
+      <c r="F28" s="122"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="46" t="s">
+      <c r="I28" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="48"/>
-      <c r="K28" s="98" t="s">
+      <c r="J28" s="110"/>
+      <c r="K28" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="L28" s="99"/>
-      <c r="M28" s="133"/>
-      <c r="N28" s="169"/>
-      <c r="O28" s="170"/>
-      <c r="P28" s="170"/>
-      <c r="Q28" s="171"/>
-      <c r="R28" s="139"/>
-      <c r="S28" s="140"/>
-      <c r="T28" s="140"/>
-      <c r="U28" s="140"/>
-      <c r="V28" s="141"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="29"/>
     </row>
     <row r="29" spans="2:22">
-      <c r="B29" s="95"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="97"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="78"/>
       <c r="E29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="48"/>
-      <c r="H29" s="90"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="118"/>
       <c r="I29" s="12" t="s">
         <v>32</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="100"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="133"/>
-      <c r="N29" s="169"/>
-      <c r="O29" s="170"/>
-      <c r="P29" s="170"/>
-      <c r="Q29" s="171"/>
-      <c r="R29" s="139"/>
-      <c r="S29" s="140"/>
-      <c r="T29" s="140"/>
-      <c r="U29" s="140"/>
-      <c r="V29" s="141"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="29"/>
     </row>
     <row r="30" spans="2:22" ht="15" customHeight="1">
-      <c r="B30" s="82" t="s">
+      <c r="B30" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="83"/>
-      <c r="D30" s="84"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="101"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="86"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="120"/>
       <c r="H30" s="13"/>
       <c r="I30" s="9"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="88"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="90"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="172"/>
-      <c r="O30" s="173"/>
-      <c r="P30" s="173"/>
-      <c r="Q30" s="174"/>
-      <c r="R30" s="139"/>
-      <c r="S30" s="140"/>
-      <c r="T30" s="140"/>
-      <c r="U30" s="140"/>
-      <c r="V30" s="141"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="29"/>
     </row>
     <row r="31" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B31" s="102" t="s">
+      <c r="B31" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="103"/>
-      <c r="D31" s="104"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="116"/>
       <c r="E31" s="13"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="86"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="120"/>
       <c r="H31" s="13"/>
       <c r="I31" s="9"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="88"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="90"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="114" t="s">
+      <c r="N31" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="O31" s="115"/>
-      <c r="P31" s="115"/>
-      <c r="Q31" s="116"/>
-      <c r="R31" s="139"/>
-      <c r="S31" s="140"/>
-      <c r="T31" s="140"/>
-      <c r="U31" s="140"/>
-      <c r="V31" s="141"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="92"/>
+      <c r="Q31" s="93"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="29"/>
     </row>
     <row r="32" spans="2:22" ht="15" customHeight="1">
-      <c r="B32" s="82" t="s">
+      <c r="B32" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="83"/>
-      <c r="D32" s="84"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="101"/>
       <c r="E32" s="13"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="86"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="120"/>
       <c r="H32" s="13"/>
       <c r="I32" s="9"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="88"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="90"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="151" t="s">
+      <c r="N32" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="O32" s="152"/>
-      <c r="P32" s="152"/>
-      <c r="Q32" s="153"/>
-      <c r="R32" s="139"/>
-      <c r="S32" s="140"/>
-      <c r="T32" s="140"/>
-      <c r="U32" s="140"/>
-      <c r="V32" s="141"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="29"/>
     </row>
     <row r="33" spans="2:22" ht="15" customHeight="1">
-      <c r="B33" s="82" t="s">
+      <c r="B33" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="83"/>
-      <c r="D33" s="84"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="101"/>
       <c r="E33" s="13"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="86"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="120"/>
       <c r="H33" s="13"/>
       <c r="I33" s="9"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="88"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="90"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="154"/>
-      <c r="O33" s="155"/>
-      <c r="P33" s="155"/>
-      <c r="Q33" s="156"/>
-      <c r="R33" s="139"/>
-      <c r="S33" s="140"/>
-      <c r="T33" s="140"/>
-      <c r="U33" s="140"/>
-      <c r="V33" s="141"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="29"/>
     </row>
     <row r="34" spans="2:22" ht="15" customHeight="1">
-      <c r="B34" s="82" t="s">
+      <c r="B34" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="83"/>
-      <c r="D34" s="84"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="101"/>
       <c r="E34" s="13"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="86"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="120"/>
       <c r="H34" s="13"/>
       <c r="I34" s="9"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="88"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="90"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="154"/>
-      <c r="O34" s="155"/>
-      <c r="P34" s="155"/>
-      <c r="Q34" s="156"/>
-      <c r="R34" s="139"/>
-      <c r="S34" s="140"/>
-      <c r="T34" s="140"/>
-      <c r="U34" s="140"/>
-      <c r="V34" s="141"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="29"/>
     </row>
     <row r="35" spans="2:22" ht="15" customHeight="1">
-      <c r="B35" s="82" t="s">
+      <c r="B35" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="83"/>
-      <c r="D35" s="84"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="101"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="86"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="120"/>
       <c r="H35" s="13"/>
       <c r="I35" s="9"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="88"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="90"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="154"/>
-      <c r="O35" s="155"/>
-      <c r="P35" s="155"/>
-      <c r="Q35" s="156"/>
-      <c r="R35" s="139"/>
-      <c r="S35" s="140"/>
-      <c r="T35" s="140"/>
-      <c r="U35" s="140"/>
-      <c r="V35" s="141"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="29"/>
     </row>
     <row r="36" spans="2:22" ht="26.25" customHeight="1">
-      <c r="B36" s="82" t="s">
+      <c r="B36" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="83"/>
-      <c r="D36" s="84"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="101"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="86"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="120"/>
       <c r="H36" s="13"/>
       <c r="I36" s="9"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="88"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="90"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="157"/>
-      <c r="O36" s="158"/>
-      <c r="P36" s="158"/>
-      <c r="Q36" s="159"/>
-      <c r="R36" s="142"/>
-      <c r="S36" s="143"/>
-      <c r="T36" s="143"/>
-      <c r="U36" s="143"/>
-      <c r="V36" s="144"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="32"/>
     </row>
     <row r="37" spans="2:22">
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="121"/>
+      <c r="J37" s="121"/>
+      <c r="K37" s="121"/>
+      <c r="L37" s="121"/>
       <c r="M37" s="1"/>
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
@@ -2830,572 +2795,730 @@
       <c r="V37" s="14"/>
     </row>
     <row r="38" spans="2:22" ht="15" customHeight="1">
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="93"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="46" t="s">
+      <c r="C38" s="74"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="47"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="89" t="s">
+      <c r="F38" s="122"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="I38" s="46" t="s">
+      <c r="I38" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="J38" s="48"/>
-      <c r="K38" s="98" t="s">
+      <c r="J38" s="110"/>
+      <c r="K38" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="L38" s="99"/>
-      <c r="M38" s="133"/>
-      <c r="N38" s="175" t="s">
+      <c r="L38" s="55"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="O38" s="176"/>
-      <c r="P38" s="176"/>
-      <c r="Q38" s="177"/>
-      <c r="R38" s="136" t="s">
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="69"/>
+      <c r="R38" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="S38" s="137"/>
-      <c r="T38" s="137"/>
-      <c r="U38" s="137"/>
-      <c r="V38" s="138"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="26"/>
     </row>
     <row r="39" spans="2:22">
-      <c r="B39" s="95"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="97"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="78"/>
       <c r="E39" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="46" t="s">
+      <c r="F39" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="G39" s="48"/>
-      <c r="H39" s="90"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="118"/>
       <c r="I39" s="12" t="s">
         <v>32</v>
       </c>
       <c r="J39" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K39" s="100"/>
-      <c r="L39" s="101"/>
-      <c r="M39" s="133"/>
-      <c r="N39" s="178"/>
-      <c r="O39" s="179"/>
-      <c r="P39" s="179"/>
-      <c r="Q39" s="180"/>
-      <c r="R39" s="139"/>
-      <c r="S39" s="140"/>
-      <c r="T39" s="140"/>
-      <c r="U39" s="140"/>
-      <c r="V39" s="141"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="29"/>
     </row>
     <row r="40" spans="2:22" ht="15" customHeight="1">
-      <c r="B40" s="82" t="s">
+      <c r="B40" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="83"/>
-      <c r="D40" s="84"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="101"/>
       <c r="E40" s="13"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="118"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="103"/>
       <c r="H40" s="13"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="88"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="90"/>
       <c r="M40" s="3"/>
-      <c r="N40" s="119" t="s">
+      <c r="N40" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="O40" s="120"/>
-      <c r="P40" s="120"/>
-      <c r="Q40" s="121"/>
-      <c r="R40" s="139"/>
-      <c r="S40" s="140"/>
-      <c r="T40" s="140"/>
-      <c r="U40" s="140"/>
-      <c r="V40" s="141"/>
+      <c r="O40" s="112"/>
+      <c r="P40" s="112"/>
+      <c r="Q40" s="113"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="29"/>
     </row>
     <row r="41" spans="2:22" ht="24" customHeight="1">
-      <c r="B41" s="102" t="s">
+      <c r="B41" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="103"/>
-      <c r="D41" s="104"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="116"/>
       <c r="E41" s="13"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="118"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="103"/>
       <c r="H41" s="13"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="88"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="90"/>
       <c r="M41" s="3"/>
-      <c r="N41" s="151"/>
-      <c r="O41" s="152"/>
-      <c r="P41" s="152"/>
-      <c r="Q41" s="153"/>
-      <c r="R41" s="139"/>
-      <c r="S41" s="140"/>
-      <c r="T41" s="140"/>
-      <c r="U41" s="140"/>
-      <c r="V41" s="141"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="29"/>
     </row>
     <row r="42" spans="2:22" ht="15" customHeight="1">
-      <c r="B42" s="82" t="s">
+      <c r="B42" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="83"/>
-      <c r="D42" s="84"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="101"/>
       <c r="E42" s="13"/>
-      <c r="F42" s="117"/>
-      <c r="G42" s="118"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="103"/>
       <c r="H42" s="13"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="88"/>
+      <c r="K42" s="89"/>
+      <c r="L42" s="90"/>
       <c r="M42" s="3"/>
-      <c r="N42" s="157"/>
-      <c r="O42" s="158"/>
-      <c r="P42" s="158"/>
-      <c r="Q42" s="159"/>
-      <c r="R42" s="139"/>
-      <c r="S42" s="140"/>
-      <c r="T42" s="140"/>
-      <c r="U42" s="140"/>
-      <c r="V42" s="141"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="29"/>
     </row>
     <row r="43" spans="2:22" ht="15" customHeight="1">
-      <c r="B43" s="82" t="s">
+      <c r="B43" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="83"/>
-      <c r="D43" s="84"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="101"/>
       <c r="E43" s="13"/>
-      <c r="F43" s="117"/>
-      <c r="G43" s="118"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="103"/>
       <c r="H43" s="13"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="88"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="90"/>
       <c r="M43" s="3"/>
-      <c r="N43" s="105" t="s">
+      <c r="N43" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="O43" s="106"/>
-      <c r="P43" s="106"/>
-      <c r="Q43" s="107"/>
-      <c r="R43" s="139"/>
-      <c r="S43" s="140"/>
-      <c r="T43" s="140"/>
-      <c r="U43" s="140"/>
-      <c r="V43" s="141"/>
+      <c r="O43" s="107"/>
+      <c r="P43" s="107"/>
+      <c r="Q43" s="108"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="29"/>
     </row>
     <row r="44" spans="2:22" ht="15" customHeight="1">
-      <c r="B44" s="82" t="s">
+      <c r="B44" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="83"/>
-      <c r="D44" s="84"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="101"/>
       <c r="E44" s="13"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="118"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="103"/>
       <c r="H44" s="13"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
-      <c r="K44" s="87"/>
-      <c r="L44" s="88"/>
+      <c r="K44" s="89"/>
+      <c r="L44" s="90"/>
       <c r="M44" s="3"/>
-      <c r="N44" s="151"/>
-      <c r="O44" s="152"/>
-      <c r="P44" s="152"/>
-      <c r="Q44" s="153"/>
-      <c r="R44" s="139"/>
-      <c r="S44" s="140"/>
-      <c r="T44" s="140"/>
-      <c r="U44" s="140"/>
-      <c r="V44" s="141"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="29"/>
     </row>
     <row r="45" spans="2:22" ht="15" customHeight="1">
-      <c r="B45" s="82" t="s">
+      <c r="B45" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="83"/>
-      <c r="D45" s="84"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="101"/>
       <c r="E45" s="13"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="118"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="103"/>
       <c r="H45" s="13"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="88"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="90"/>
       <c r="M45" s="3"/>
-      <c r="N45" s="157"/>
-      <c r="O45" s="158"/>
-      <c r="P45" s="158"/>
-      <c r="Q45" s="159"/>
-      <c r="R45" s="139"/>
-      <c r="S45" s="140"/>
-      <c r="T45" s="140"/>
-      <c r="U45" s="140"/>
-      <c r="V45" s="141"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="29"/>
     </row>
     <row r="46" spans="2:22" ht="15" customHeight="1">
-      <c r="B46" s="82" t="s">
+      <c r="B46" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="83"/>
-      <c r="D46" s="84"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="101"/>
       <c r="E46" s="13"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="118"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="103"/>
       <c r="H46" s="13"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="88"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="90"/>
       <c r="M46" s="3"/>
-      <c r="N46" s="166"/>
-      <c r="O46" s="167"/>
-      <c r="P46" s="167"/>
-      <c r="Q46" s="168"/>
-      <c r="R46" s="139"/>
-      <c r="S46" s="140"/>
-      <c r="T46" s="140"/>
-      <c r="U46" s="140"/>
-      <c r="V46" s="141"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="59"/>
+      <c r="P46" s="59"/>
+      <c r="Q46" s="60"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="29"/>
     </row>
     <row r="47" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B47" s="82" t="s">
+      <c r="B47" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="83"/>
-      <c r="D47" s="84"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="101"/>
       <c r="E47" s="13"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="118"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="103"/>
       <c r="H47" s="13"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="88"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="90"/>
       <c r="M47" s="3"/>
-      <c r="N47" s="169"/>
-      <c r="O47" s="170"/>
-      <c r="P47" s="170"/>
-      <c r="Q47" s="171"/>
-      <c r="R47" s="139"/>
-      <c r="S47" s="140"/>
-      <c r="T47" s="140"/>
-      <c r="U47" s="140"/>
-      <c r="V47" s="141"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="63"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="29"/>
     </row>
     <row r="48" spans="2:22" ht="20.25" customHeight="1">
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="98" t="s">
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="104"/>
+      <c r="J48" s="105"/>
+      <c r="K48" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="L48" s="99"/>
+      <c r="L48" s="55"/>
       <c r="M48" s="3"/>
-      <c r="N48" s="169"/>
-      <c r="O48" s="170"/>
-      <c r="P48" s="170"/>
-      <c r="Q48" s="171"/>
-      <c r="R48" s="139"/>
-      <c r="S48" s="140"/>
-      <c r="T48" s="140"/>
-      <c r="U48" s="140"/>
-      <c r="V48" s="141"/>
+      <c r="N48" s="61"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="63"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="29"/>
     </row>
     <row r="49" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B49" s="127" t="s">
+      <c r="B49" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="128"/>
+      <c r="C49" s="95"/>
       <c r="D49" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="E49" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="100"/>
-      <c r="L49" s="101"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="97"/>
+      <c r="I49" s="97"/>
+      <c r="J49" s="98"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="57"/>
       <c r="M49" s="3"/>
-      <c r="N49" s="169"/>
-      <c r="O49" s="170"/>
-      <c r="P49" s="170"/>
-      <c r="Q49" s="171"/>
-      <c r="R49" s="139"/>
-      <c r="S49" s="140"/>
-      <c r="T49" s="140"/>
-      <c r="U49" s="140"/>
-      <c r="V49" s="141"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="29"/>
     </row>
     <row r="50" spans="2:22" ht="15" customHeight="1">
-      <c r="B50" s="145" t="s">
+      <c r="B50" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="146"/>
+      <c r="C50" s="34"/>
       <c r="D50" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="122"/>
-      <c r="F50" s="123"/>
-      <c r="G50" s="123"/>
-      <c r="H50" s="123"/>
-      <c r="I50" s="123"/>
-      <c r="J50" s="124"/>
-      <c r="K50" s="87"/>
-      <c r="L50" s="88"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="81"/>
+      <c r="K50" s="89"/>
+      <c r="L50" s="90"/>
       <c r="M50" s="3"/>
-      <c r="N50" s="172"/>
-      <c r="O50" s="173"/>
-      <c r="P50" s="173"/>
-      <c r="Q50" s="174"/>
-      <c r="R50" s="139"/>
-      <c r="S50" s="140"/>
-      <c r="T50" s="140"/>
-      <c r="U50" s="140"/>
-      <c r="V50" s="141"/>
+      <c r="N50" s="64"/>
+      <c r="O50" s="65"/>
+      <c r="P50" s="65"/>
+      <c r="Q50" s="66"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="29"/>
     </row>
     <row r="51" spans="2:22" ht="15" customHeight="1">
-      <c r="B51" s="147"/>
-      <c r="C51" s="148"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="36"/>
       <c r="D51" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="122"/>
-      <c r="F51" s="123"/>
-      <c r="G51" s="123"/>
-      <c r="H51" s="123"/>
-      <c r="I51" s="123"/>
-      <c r="J51" s="124"/>
-      <c r="K51" s="125"/>
-      <c r="L51" s="126"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="83"/>
       <c r="M51" s="3"/>
-      <c r="N51" s="114" t="s">
+      <c r="N51" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="O51" s="115"/>
-      <c r="P51" s="115"/>
-      <c r="Q51" s="116"/>
-      <c r="R51" s="139"/>
-      <c r="S51" s="140"/>
-      <c r="T51" s="140"/>
-      <c r="U51" s="140"/>
-      <c r="V51" s="141"/>
+      <c r="O51" s="92"/>
+      <c r="P51" s="92"/>
+      <c r="Q51" s="93"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="29"/>
     </row>
     <row r="52" spans="2:22" ht="15" customHeight="1">
-      <c r="B52" s="149"/>
-      <c r="C52" s="150"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="38"/>
       <c r="D52" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="122"/>
-      <c r="F52" s="123"/>
-      <c r="G52" s="123"/>
-      <c r="H52" s="123"/>
-      <c r="I52" s="123"/>
-      <c r="J52" s="124"/>
-      <c r="K52" s="125"/>
-      <c r="L52" s="126"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="80"/>
+      <c r="G52" s="80"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="81"/>
+      <c r="K52" s="82"/>
+      <c r="L52" s="83"/>
       <c r="M52" s="3"/>
-      <c r="N52" s="151" t="s">
+      <c r="N52" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="O52" s="152"/>
-      <c r="P52" s="152"/>
-      <c r="Q52" s="153"/>
-      <c r="R52" s="139"/>
-      <c r="S52" s="140"/>
-      <c r="T52" s="140"/>
-      <c r="U52" s="140"/>
-      <c r="V52" s="141"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="28"/>
+      <c r="T52" s="28"/>
+      <c r="U52" s="28"/>
+      <c r="V52" s="29"/>
     </row>
     <row r="53" spans="2:22" ht="27" customHeight="1">
-      <c r="B53" s="127" t="s">
+      <c r="B53" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="128"/>
+      <c r="C53" s="95"/>
       <c r="D53" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E53" s="39" t="s">
+      <c r="E53" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="39" t="s">
+      <c r="F53" s="97"/>
+      <c r="G53" s="97"/>
+      <c r="H53" s="98"/>
+      <c r="I53" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="J53" s="41"/>
-      <c r="K53" s="125"/>
-      <c r="L53" s="126"/>
+      <c r="J53" s="98"/>
+      <c r="K53" s="82"/>
+      <c r="L53" s="83"/>
       <c r="M53" s="3"/>
-      <c r="N53" s="154"/>
-      <c r="O53" s="155"/>
-      <c r="P53" s="155"/>
-      <c r="Q53" s="156"/>
-      <c r="R53" s="139"/>
-      <c r="S53" s="140"/>
-      <c r="T53" s="140"/>
-      <c r="U53" s="140"/>
-      <c r="V53" s="141"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="43"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="28"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="29"/>
     </row>
     <row r="54" spans="2:22" ht="15" customHeight="1">
-      <c r="B54" s="160" t="s">
+      <c r="B54" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="161"/>
+      <c r="C54" s="49"/>
       <c r="D54" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="122"/>
-      <c r="F54" s="123"/>
-      <c r="G54" s="123"/>
-      <c r="H54" s="124"/>
-      <c r="I54" s="122"/>
-      <c r="J54" s="124"/>
-      <c r="K54" s="125"/>
-      <c r="L54" s="126"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="81"/>
+      <c r="I54" s="79"/>
+      <c r="J54" s="81"/>
+      <c r="K54" s="82"/>
+      <c r="L54" s="83"/>
       <c r="M54" s="3"/>
-      <c r="N54" s="154"/>
-      <c r="O54" s="155"/>
-      <c r="P54" s="155"/>
-      <c r="Q54" s="156"/>
-      <c r="R54" s="139"/>
-      <c r="S54" s="140"/>
-      <c r="T54" s="140"/>
-      <c r="U54" s="140"/>
-      <c r="V54" s="141"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="28"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="29"/>
     </row>
     <row r="55" spans="2:22">
-      <c r="B55" s="162"/>
-      <c r="C55" s="163"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="51"/>
       <c r="D55" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E55" s="129"/>
-      <c r="F55" s="181"/>
-      <c r="G55" s="181"/>
-      <c r="H55" s="130"/>
-      <c r="I55" s="129"/>
-      <c r="J55" s="130"/>
-      <c r="K55" s="125"/>
-      <c r="L55" s="126"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="84"/>
+      <c r="J55" s="86"/>
+      <c r="K55" s="82"/>
+      <c r="L55" s="83"/>
       <c r="M55" s="15"/>
-      <c r="N55" s="154"/>
-      <c r="O55" s="155"/>
-      <c r="P55" s="155"/>
-      <c r="Q55" s="156"/>
-      <c r="R55" s="139"/>
-      <c r="S55" s="140"/>
-      <c r="T55" s="140"/>
-      <c r="U55" s="140"/>
-      <c r="V55" s="141"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="28"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="29"/>
     </row>
     <row r="56" spans="2:22" ht="21" customHeight="1">
-      <c r="B56" s="164"/>
-      <c r="C56" s="165"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="122"/>
-      <c r="F56" s="123"/>
-      <c r="G56" s="123"/>
-      <c r="H56" s="124"/>
-      <c r="I56" s="131"/>
-      <c r="J56" s="132"/>
-      <c r="K56" s="125"/>
-      <c r="L56" s="126"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="87"/>
+      <c r="J56" s="88"/>
+      <c r="K56" s="82"/>
+      <c r="L56" s="83"/>
       <c r="M56" s="15"/>
-      <c r="N56" s="157"/>
-      <c r="O56" s="158"/>
-      <c r="P56" s="158"/>
-      <c r="Q56" s="159"/>
-      <c r="R56" s="142"/>
-      <c r="S56" s="143"/>
-      <c r="T56" s="143"/>
-      <c r="U56" s="143"/>
-      <c r="V56" s="144"/>
+      <c r="N56" s="45"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="47"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="31"/>
+      <c r="T56" s="31"/>
+      <c r="U56" s="31"/>
+      <c r="V56" s="32"/>
     </row>
     <row r="57" spans="2:22" ht="15" customHeight="1">
-      <c r="B57" s="134" t="s">
+      <c r="B57" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="134"/>
-      <c r="D57" s="134"/>
-      <c r="E57" s="134"/>
-      <c r="F57" s="134"/>
-      <c r="G57" s="134"/>
-      <c r="H57" s="134"/>
-      <c r="I57" s="134"/>
-      <c r="J57" s="134"/>
-      <c r="K57" s="134"/>
-      <c r="L57" s="134"/>
-      <c r="M57" s="134"/>
-      <c r="N57" s="134"/>
-      <c r="O57" s="134"/>
-      <c r="P57" s="134"/>
-      <c r="Q57" s="134"/>
-      <c r="R57" s="134"/>
-      <c r="S57" s="134"/>
-      <c r="T57" s="134"/>
-      <c r="U57" s="134"/>
-      <c r="V57" s="134"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
     </row>
     <row r="58" spans="2:22">
-      <c r="B58" s="135"/>
-      <c r="C58" s="135"/>
-      <c r="D58" s="135"/>
-      <c r="E58" s="135"/>
-      <c r="F58" s="135"/>
-      <c r="G58" s="135"/>
-      <c r="H58" s="135"/>
-      <c r="I58" s="135"/>
-      <c r="J58" s="135"/>
-      <c r="K58" s="135"/>
-      <c r="L58" s="135"/>
-      <c r="M58" s="135"/>
-      <c r="N58" s="135"/>
-      <c r="O58" s="135"/>
-      <c r="P58" s="135"/>
-      <c r="Q58" s="135"/>
-      <c r="R58" s="135"/>
-      <c r="S58" s="135"/>
-      <c r="T58" s="135"/>
-      <c r="U58" s="135"/>
-      <c r="V58" s="135"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="23"/>
+      <c r="Q58" s="23"/>
+      <c r="R58" s="23"/>
+      <c r="S58" s="23"/>
+      <c r="T58" s="23"/>
+      <c r="U58" s="23"/>
+      <c r="V58" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="182">
+    <mergeCell ref="K1:V1"/>
+    <mergeCell ref="J2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="B4:V4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:V5"/>
+    <mergeCell ref="O3:V3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="P6:V6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="B8:V8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="K9:U9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="O10:V10"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="B16:V16"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="N17:V17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="B18:D19"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N24:Q25"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B37:L37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="K51:L51"/>
     <mergeCell ref="M28:M29"/>
     <mergeCell ref="M38:M39"/>
     <mergeCell ref="B57:V58"/>
@@ -3420,164 +3543,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="B37:L37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="N24:Q25"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B16:V16"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="N17:V17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="B18:D19"/>
-    <mergeCell ref="K18:L19"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="O10:V10"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="P6:V6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="B8:V8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="K9:U9"/>
-    <mergeCell ref="K1:V1"/>
-    <mergeCell ref="J2:R2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="B4:V4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:V5"/>
-    <mergeCell ref="O3:V3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="14" scale="85" orientation="portrait" r:id="rId1"/>
